--- a/ESP32_SLAVE_RFID_TFT_PWM.xlsx
+++ b/ESP32_SLAVE_RFID_TFT_PWM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Arduino\ESP32_Example\ESP32_REMOTE_and_TFT_and_RFID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Arduino\ESP32_Example0901\ESP32_REMOTE_and_TFT_and_RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F7636-6C30-42D9-8A8B-3B342F9C4B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F182EDC-2866-4FE6-B186-C5A123864F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1095" windowWidth="35595" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
   <si>
     <t>GPIO0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -553,6 +553,34 @@
   </si>
   <si>
     <t>7E 05 41 00 01 45 EF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_R_GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_G_GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_B_GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ir_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ir_back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ir_left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ir_right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,9 +945,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,6 +965,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1400,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1555,8 +1583,8 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1572,8 +1600,8 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
@@ -1587,8 +1615,8 @@
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
@@ -1602,8 +1630,8 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="14" t="s">
         <v>9</v>
       </c>
@@ -1619,8 +1647,8 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
@@ -1636,8 +1664,8 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="14" t="s">
         <v>11</v>
       </c>
@@ -1651,7 +1679,9 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="14" t="s">
         <v>12</v>
@@ -1672,7 +1702,9 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="14" t="s">
         <v>13</v>
@@ -1691,7 +1723,9 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="14" t="s">
         <v>14</v>
@@ -1957,8 +1991,10 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -1976,8 +2012,10 @@
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="34"/>
       <c r="D32" s="14" t="s">
         <v>29</v>
       </c>
@@ -1993,8 +2031,10 @@
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
-      <c r="C33" s="27"/>
+      <c r="B33" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="34"/>
       <c r="D33" s="14" t="s">
         <v>30</v>
       </c>
@@ -2010,8 +2050,10 @@
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="12"/>
-      <c r="C34" s="27"/>
+      <c r="B34" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="34"/>
       <c r="D34" s="14" t="s">
         <v>31</v>
       </c>
@@ -2027,50 +2069,50 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="2:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="2:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="2:10" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="65" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2095,7 +2137,7 @@
       </c>
     </row>
     <row r="66" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="27" t="s">
         <v>106</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -2121,7 +2163,7 @@
       </c>
     </row>
     <row r="67" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="28"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="24" t="s">
         <v>117</v>
       </c>
@@ -2145,7 +2187,7 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="27" t="s">
         <v>107</v>
       </c>
       <c r="E68" s="25" t="s">
@@ -2171,7 +2213,7 @@
       </c>
     </row>
     <row r="69" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="28"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="24" t="s">
         <v>119</v>
       </c>
@@ -2195,7 +2237,7 @@
       </c>
     </row>
     <row r="70" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="27" t="s">
         <v>108</v>
       </c>
       <c r="E70" s="25" t="s">
@@ -2221,7 +2263,7 @@
       </c>
     </row>
     <row r="71" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="28"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="24" t="s">
         <v>121</v>
       </c>
@@ -2246,7 +2288,7 @@
     </row>
     <row r="72" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72"/>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="27" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="25" t="s">
@@ -2272,7 +2314,7 @@
       </c>
     </row>
     <row r="73" spans="2:11" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="28"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="24" t="s">
         <v>123</v>
       </c>
